--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.082348333333333</v>
+        <v>0.0003446666666666667</v>
       </c>
       <c r="H2">
-        <v>9.247045</v>
+        <v>0.001034</v>
       </c>
       <c r="I2">
-        <v>0.9981418913266565</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="J2">
-        <v>0.9981418913266566</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.32043733333333</v>
+        <v>0.402264</v>
       </c>
       <c r="N2">
-        <v>60.96131200000001</v>
+        <v>1.206792</v>
       </c>
       <c r="O2">
-        <v>0.94678970029284</v>
+        <v>0.2604850908638803</v>
       </c>
       <c r="P2">
-        <v>0.9467897002928399</v>
+        <v>0.2604850908638803</v>
       </c>
       <c r="Q2">
-        <v>62.63466614700445</v>
+        <v>0.000138646992</v>
       </c>
       <c r="R2">
-        <v>563.71199532304</v>
+        <v>0.001247822928</v>
       </c>
       <c r="S2">
-        <v>0.9450304621388936</v>
+        <v>0.014760060497219</v>
       </c>
       <c r="T2">
-        <v>0.9450304621388936</v>
+        <v>0.014760060497219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.082348333333333</v>
+        <v>0.0003446666666666667</v>
       </c>
       <c r="H3">
-        <v>9.247045</v>
+        <v>0.001034</v>
       </c>
       <c r="I3">
-        <v>0.9981418913266565</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="J3">
-        <v>0.9981418913266566</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.121903</v>
       </c>
       <c r="O3">
-        <v>0.001893274620382154</v>
+        <v>0.02631266534048916</v>
       </c>
       <c r="P3">
-        <v>0.001893274620382154</v>
+        <v>0.02631266534048917</v>
       </c>
       <c r="Q3">
-        <v>0.1252491696261111</v>
+        <v>1.400530022222222E-05</v>
       </c>
       <c r="R3">
-        <v>1.127242526635</v>
+        <v>0.000126047702</v>
       </c>
       <c r="S3">
-        <v>0.001889756710389001</v>
+        <v>0.001490974132072874</v>
       </c>
       <c r="T3">
-        <v>0.001889756710389001</v>
+        <v>0.001490974132072874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.082348333333333</v>
+        <v>0.0003446666666666667</v>
       </c>
       <c r="H4">
-        <v>9.247045</v>
+        <v>0.001034</v>
       </c>
       <c r="I4">
-        <v>0.9981418913266565</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="J4">
-        <v>0.9981418913266566</v>
+        <v>0.05666374397194213</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.304169</v>
       </c>
       <c r="O4">
-        <v>0.05131702508677787</v>
+        <v>0.7132022437956305</v>
       </c>
       <c r="P4">
-        <v>0.05131702508677786</v>
+        <v>0.7132022437956306</v>
       </c>
       <c r="Q4">
-        <v>3.394866603400556</v>
+        <v>0.0003796123051111112</v>
       </c>
       <c r="R4">
-        <v>30.553799430605</v>
+        <v>0.003416510746</v>
       </c>
       <c r="S4">
-        <v>0.05122167247737395</v>
+        <v>0.04041270934265026</v>
       </c>
       <c r="T4">
-        <v>0.05122167247737393</v>
+        <v>0.04041270934265026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.017214</v>
       </c>
       <c r="I5">
-        <v>0.001858108673343437</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="J5">
-        <v>0.001858108673343438</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.32043733333333</v>
+        <v>0.402264</v>
       </c>
       <c r="N5">
-        <v>60.96131200000001</v>
+        <v>1.206792</v>
       </c>
       <c r="O5">
-        <v>0.94678970029284</v>
+        <v>0.2604850908638803</v>
       </c>
       <c r="P5">
-        <v>0.9467897002928399</v>
+        <v>0.2604850908638803</v>
       </c>
       <c r="Q5">
-        <v>0.1165986694186667</v>
+        <v>0.002308190832</v>
       </c>
       <c r="R5">
-        <v>1.049388024768</v>
+        <v>0.020773717488</v>
       </c>
       <c r="S5">
-        <v>0.00175923815394636</v>
+        <v>0.2457250303666613</v>
       </c>
       <c r="T5">
-        <v>0.00175923815394636</v>
+        <v>0.2457250303666613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.017214</v>
       </c>
       <c r="I6">
-        <v>0.001858108673343437</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="J6">
-        <v>0.001858108673343438</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.121903</v>
       </c>
       <c r="O6">
-        <v>0.001893274620382154</v>
+        <v>0.02631266534048916</v>
       </c>
       <c r="P6">
-        <v>0.001893274620382154</v>
+        <v>0.02631266534048917</v>
       </c>
       <c r="Q6">
         <v>0.0002331598046666667</v>
@@ -818,10 +818,10 @@
         <v>0.002098438242</v>
       </c>
       <c r="S6">
-        <v>3.517909993153085E-06</v>
+        <v>0.02482169120841629</v>
       </c>
       <c r="T6">
-        <v>3.517909993153085E-06</v>
+        <v>0.02482169120841629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.017214</v>
       </c>
       <c r="I7">
-        <v>0.001858108673343437</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="J7">
-        <v>0.001858108673343438</v>
+        <v>0.9433362560280578</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.304169</v>
       </c>
       <c r="O7">
-        <v>0.05131702508677787</v>
+        <v>0.7132022437956305</v>
       </c>
       <c r="P7">
-        <v>0.05131702508677786</v>
+        <v>0.7132022437956306</v>
       </c>
       <c r="Q7">
         <v>0.006319773907333333</v>
@@ -880,10 +880,10 @@
         <v>0.056877965166</v>
       </c>
       <c r="S7">
-        <v>9.535260940392472E-05</v>
+        <v>0.6727895344529802</v>
       </c>
       <c r="T7">
-        <v>9.535260940392472E-05</v>
+        <v>0.6727895344529803</v>
       </c>
     </row>
   </sheetData>
